--- a/excel_pbi_tableau_refline.xlsx
+++ b/excel_pbi_tableau_refline.xlsx
@@ -5,16 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\havis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hmadconsulting-my.sharepoint.com/personal/havish_hmadconsulting_onmicrosoft_com/Documents/Documents/GitHub/excel_pbi_tab_dynamic_ref_line/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{729D416B-7557-4BD1-A507-EE4DEFA8EEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{729D416B-7557-4BD1-A507-EE4DEFA8EEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C139B17F-5D5F-480B-933B-236215A99F77}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6CDAD192-731E-4BEE-8D92-70B42C401C1D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6CDAD192-731E-4BEE-8D92-70B42C401C1D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Profile" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Letter_Series">_xlfn.LAMBDA(_xlpm.range, LOWER(SUBSTITUTE(ADDRESS(1, _xlfn.SEQUENCE(_xlpm.range-1,,1),4), 1, "")))</definedName>
+    <definedName name="Split_Text">_xlfn.LAMBDA(_xlpm.input,_xlpm.delimiter,TRANSPOSE(_xlfn.FILTERXML("&lt;x&gt;&lt;y&gt;"&amp;SUBSTITUTE(_xlpm.input,_xlpm.delimiter,"&lt;/y&gt;&lt;y&gt;")&amp;"&lt;/y&gt;&lt;/x&gt;","//y")))</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1421,6 +1426,516 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7764905" cy="7646567"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C839B53-391F-4C93-8CD6-9327E947E699}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7764905" cy="7646567"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>273981</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>145144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>116744</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>138001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BE0E3AE-9165-48D8-B711-428BC4408969}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7951131" y="145144"/>
+          <a:ext cx="6338813" cy="945357"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6757"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="2577CE"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" fontAlgn="auto"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>See Course Details: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" fontAlgn="auto"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>https://www.havishmconsulting.com/mega-bundle </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>273981</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>102776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>116744</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A4AD3FF-1C97-4589-A97C-B70B45FAD261}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7951131" y="1436276"/>
+          <a:ext cx="6338813" cy="945357"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6757"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="2577CE"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" fontAlgn="auto"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YouTube: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" fontAlgn="auto"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>https://www.youtube.com/c/havishmadhvapaty</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>273981</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>60408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>116744</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>53265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{314A676B-92BE-4751-9639-E55BE46A8C29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7951131" y="2727408"/>
+          <a:ext cx="6338813" cy="945357"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6757"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="2577CE"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr fontAlgn="auto"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Buy from Shop:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="auto"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>https://www.havishmconsulting.com/shop</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>273981</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>18040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>116744</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>10897</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFDFB413-9ABF-4332-A21D-D1EBF85579AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7951131" y="4018540"/>
+          <a:ext cx="6338813" cy="945357"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6757"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="2577CE"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr fontAlgn="auto"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Medium:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="auto"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>https://medium.com/@havish-madhvapaty</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>273981</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>163050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>116744</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>155906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4095C71-92B6-4983-ADC0-428F72C88DFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7951131" y="5306550"/>
+          <a:ext cx="6338813" cy="945356"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6757"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="2577CE"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr fontAlgn="auto"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Github:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="auto"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>https://github.com/havishmad</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1757,10 +2272,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8114B5-A18C-407B-85C7-8765CFD3A4D5}">
+  <dimension ref="A1:Y42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="S38" sqref="S38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="25" width="8.85546875" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" x14ac:dyDescent="0.25"/>
+    <row r="34" x14ac:dyDescent="0.25"/>
+    <row r="35" x14ac:dyDescent="0.25"/>
+    <row r="36" x14ac:dyDescent="0.25"/>
+    <row r="37" x14ac:dyDescent="0.25"/>
+    <row r="38" x14ac:dyDescent="0.25"/>
+    <row r="39" x14ac:dyDescent="0.25"/>
+    <row r="40" x14ac:dyDescent="0.25"/>
+    <row r="41" x14ac:dyDescent="0.25"/>
+    <row r="42" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECC0F49-2886-4411-9777-DD37EFEF773E}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/excel_pbi_tableau_refline.xlsx
+++ b/excel_pbi_tableau_refline.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="8_{729D416B-7557-4BD1-A507-EE4DEFA8EEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C139B17F-5D5F-480B-933B-236215A99F77}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6CDAD192-731E-4BEE-8D92-70B42C401C1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6CDAD192-731E-4BEE-8D92-70B42C401C1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Profile" sheetId="2" r:id="rId1"/>
@@ -2275,7 +2275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8114B5-A18C-407B-85C7-8765CFD3A4D5}">
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="61" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="61" workbookViewId="0">
       <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
@@ -2337,7 +2337,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECC0F49-2886-4411-9777-DD37EFEF773E}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
